--- a/Schilberg (Spalt unten Versuchsreigen)VDKDA3.xlsx
+++ b/Schilberg (Spalt unten Versuchsreigen)VDKDA3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="23580" windowHeight="9855"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="23580" windowHeight="9855" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="F13 alt&amp;neu" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,12 @@
     <sheet name="F17 at&amp;neu" sheetId="3" r:id="rId3"/>
     <sheet name="F18" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="64">
   <si>
     <t>F13</t>
   </si>
@@ -283,6 +280,36 @@
   <si>
     <t>Standardabw.</t>
   </si>
+  <si>
+    <t>nF13 Fräs Spalt unten</t>
+  </si>
+  <si>
+    <t>Mp/Nr</t>
+  </si>
+  <si>
+    <t>nFxx Spalt fräs</t>
+  </si>
+  <si>
+    <t>MP10a</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>Mittlelw.</t>
+  </si>
+  <si>
+    <t>nF17 Fräs Spalt</t>
+  </si>
+  <si>
+    <t>*******</t>
+  </si>
+  <si>
+    <t>nF18 Fräs Spalt</t>
+  </si>
+  <si>
+    <t>****</t>
+  </si>
 </sst>
 </file>
 
@@ -390,7 +417,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,8 +442,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -459,12 +492,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -514,12 +560,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Dezimal" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -632,24 +690,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="105849600"/>
-        <c:axId val="105851136"/>
+        <c:axId val="111195264"/>
+        <c:axId val="111196800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105849600"/>
+        <c:axId val="111195264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105851136"/>
+        <c:crossAx val="111196800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105851136"/>
+        <c:axId val="111196800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,7 +715,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105849600"/>
+        <c:crossAx val="111195264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -670,7 +728,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -773,24 +831,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="66253952"/>
-        <c:axId val="64426368"/>
+        <c:axId val="111555328"/>
+        <c:axId val="111556864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66253952"/>
+        <c:axId val="111555328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64426368"/>
+        <c:crossAx val="111556864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64426368"/>
+        <c:axId val="111556864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +856,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66253952"/>
+        <c:crossAx val="111555328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -811,7 +869,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -913,24 +971,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="71984256"/>
-        <c:axId val="71987200"/>
+        <c:axId val="111581056"/>
+        <c:axId val="111582592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71984256"/>
+        <c:axId val="111581056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71987200"/>
+        <c:crossAx val="111582592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71987200"/>
+        <c:axId val="111582592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,7 +996,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71984256"/>
+        <c:crossAx val="111581056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -951,7 +1009,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1054,24 +1112,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="71554560"/>
-        <c:axId val="71556096"/>
+        <c:axId val="111680512"/>
+        <c:axId val="111686400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71554560"/>
+        <c:axId val="111680512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71556096"/>
+        <c:crossAx val="111686400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71556096"/>
+        <c:axId val="111686400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1137,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71554560"/>
+        <c:crossAx val="111680512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1092,7 +1150,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1194,24 +1252,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64178816"/>
-        <c:axId val="67012096"/>
+        <c:axId val="111751936"/>
+        <c:axId val="111753472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64178816"/>
+        <c:axId val="111751936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67012096"/>
+        <c:crossAx val="111753472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67012096"/>
+        <c:axId val="111753472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1277,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64178816"/>
+        <c:crossAx val="111751936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1232,7 +1290,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1335,24 +1393,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="56757248"/>
-        <c:axId val="56892032"/>
+        <c:axId val="111781760"/>
+        <c:axId val="111783296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56757248"/>
+        <c:axId val="111781760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56892032"/>
+        <c:crossAx val="111783296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56892032"/>
+        <c:axId val="111783296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,7 +1418,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56757248"/>
+        <c:crossAx val="111781760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1373,7 +1431,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1488,24 +1546,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="111194880"/>
-        <c:axId val="111304704"/>
+        <c:axId val="111220992"/>
+        <c:axId val="111235072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111194880"/>
+        <c:axId val="111220992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111304704"/>
+        <c:crossAx val="111235072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111304704"/>
+        <c:axId val="111235072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1513,7 +1571,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111194880"/>
+        <c:crossAx val="111220992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1526,7 +1584,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1640,24 +1698,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="111422080"/>
-        <c:axId val="111408256"/>
+        <c:axId val="111259008"/>
+        <c:axId val="111281280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111422080"/>
+        <c:axId val="111259008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111408256"/>
+        <c:crossAx val="111281280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111408256"/>
+        <c:axId val="111281280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1665,7 +1723,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111422080"/>
+        <c:crossAx val="111259008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1678,7 +1736,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1793,24 +1851,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="111479424"/>
-        <c:axId val="111481216"/>
+        <c:axId val="111297280"/>
+        <c:axId val="111298816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="111479424"/>
+        <c:axId val="111297280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111481216"/>
+        <c:crossAx val="111298816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111481216"/>
+        <c:axId val="111298816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1818,7 +1876,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111479424"/>
+        <c:crossAx val="111297280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1831,7 +1889,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1857,7 +1915,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:plotArea>
@@ -1946,24 +2003,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="72033408"/>
-        <c:axId val="72035712"/>
+        <c:axId val="111380736"/>
+        <c:axId val="111382528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="72033408"/>
+        <c:axId val="111380736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72035712"/>
+        <c:crossAx val="111382528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72035712"/>
+        <c:axId val="111382528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1971,20 +2028,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72033408"/>
+        <c:crossAx val="111380736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2019,10 +2075,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6307961504811894E-2"/>
-          <c:y val="0.19943314377369495"/>
+          <c:x val="7.6307961504811908E-2"/>
+          <c:y val="0.19943314377369498"/>
           <c:w val="0.66309623797025374"/>
-          <c:h val="0.75379593175853021"/>
+          <c:h val="0.75379593175853044"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -2109,24 +2165,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="101733120"/>
-        <c:axId val="101735040"/>
+        <c:axId val="111394176"/>
+        <c:axId val="111416448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101733120"/>
+        <c:axId val="111394176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101735040"/>
+        <c:crossAx val="111416448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101735040"/>
+        <c:axId val="111416448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2134,7 +2190,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101733120"/>
+        <c:crossAx val="111394176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2147,7 +2203,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2249,24 +2305,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="103401728"/>
-        <c:axId val="103408000"/>
+        <c:axId val="111440640"/>
+        <c:axId val="111442176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103401728"/>
+        <c:axId val="111440640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103408000"/>
+        <c:crossAx val="111442176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="103408000"/>
+        <c:axId val="111442176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,7 +2330,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103401728"/>
+        <c:crossAx val="111440640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2287,7 +2343,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2390,24 +2446,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="105734912"/>
-        <c:axId val="105736448"/>
+        <c:axId val="111449984"/>
+        <c:axId val="111451520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="105734912"/>
+        <c:axId val="111449984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105736448"/>
+        <c:crossAx val="111451520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105736448"/>
+        <c:axId val="111451520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2415,7 +2471,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105734912"/>
+        <c:crossAx val="111449984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2428,7 +2484,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2530,24 +2586,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69608960"/>
-        <c:axId val="56894208"/>
+        <c:axId val="111488384"/>
+        <c:axId val="111506560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69608960"/>
+        <c:axId val="111488384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56894208"/>
+        <c:crossAx val="111506560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56894208"/>
+        <c:axId val="111506560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,7 +2611,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69608960"/>
+        <c:crossAx val="111488384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2568,7 +2624,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3014,17 +3070,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Spalt untenF13 Serie"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle3" displayName="Tabelle3" ref="B76:L98" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B76:L98"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Mp/Nr"/>
+    <tableColumn id="2" name="MP1"/>
+    <tableColumn id="3" name="MP2"/>
+    <tableColumn id="4" name="MP3"/>
+    <tableColumn id="5" name="MP4"/>
+    <tableColumn id="6" name="MP5"/>
+    <tableColumn id="7" name="MP6"/>
+    <tableColumn id="8" name="MP7"/>
+    <tableColumn id="9" name="MP8"/>
+    <tableColumn id="10" name="MP9"/>
+    <tableColumn id="11" name="MP10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3312,10 +3375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:L63"/>
+  <dimension ref="B2:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5067,18 +5130,861 @@
         <v>3.7679395458330579E-2</v>
       </c>
     </row>
+    <row r="75" spans="2:12" ht="18.75">
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F75" s="44"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H76" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I76" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="J76" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K76" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L76" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="42">
+        <v>1</v>
+      </c>
+      <c r="C77" s="42">
+        <v>-1.99</v>
+      </c>
+      <c r="D77" s="42">
+        <v>-2.25</v>
+      </c>
+      <c r="E77" s="42">
+        <v>-2.58</v>
+      </c>
+      <c r="F77" s="42">
+        <v>-2.71</v>
+      </c>
+      <c r="G77" s="42">
+        <v>-2.81</v>
+      </c>
+      <c r="H77" s="42">
+        <v>-2.41</v>
+      </c>
+      <c r="I77" s="42">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="J77" s="42">
+        <v>-2.46</v>
+      </c>
+      <c r="K77" s="42">
+        <v>-2.21</v>
+      </c>
+      <c r="L77" s="42">
+        <v>-2.34</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="42">
+        <v>2</v>
+      </c>
+      <c r="C78" s="42">
+        <v>-1.96</v>
+      </c>
+      <c r="D78" s="42">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="E78" s="42">
+        <v>-2.3199999999999998</v>
+      </c>
+      <c r="F78" s="42">
+        <v>-2.91</v>
+      </c>
+      <c r="G78" s="42">
+        <v>-3.03</v>
+      </c>
+      <c r="H78" s="42">
+        <v>-2.81</v>
+      </c>
+      <c r="I78" s="42">
+        <v>-2.68</v>
+      </c>
+      <c r="J78" s="42">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="K78" s="42">
+        <v>-2.5</v>
+      </c>
+      <c r="L78" s="42">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="B79" s="42">
+        <v>3</v>
+      </c>
+      <c r="C79" s="42">
+        <v>-2.04</v>
+      </c>
+      <c r="D79" s="42">
+        <v>-2.27</v>
+      </c>
+      <c r="E79" s="42">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="F79" s="42">
+        <v>-2.83</v>
+      </c>
+      <c r="G79" s="42">
+        <v>-2.71</v>
+      </c>
+      <c r="H79" s="42">
+        <v>-2.34</v>
+      </c>
+      <c r="I79" s="42">
+        <v>-2.44</v>
+      </c>
+      <c r="J79" s="42">
+        <v>-2.34</v>
+      </c>
+      <c r="K79" s="42">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="L79" s="42">
+        <v>-2.31</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80" s="42">
+        <v>4</v>
+      </c>
+      <c r="C80" s="42">
+        <v>-2</v>
+      </c>
+      <c r="D80" s="42">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="E80" s="42">
+        <v>-2.31</v>
+      </c>
+      <c r="F80" s="42">
+        <v>-2.9</v>
+      </c>
+      <c r="G80" s="42">
+        <v>-3.05</v>
+      </c>
+      <c r="H80" s="42">
+        <v>-2.8</v>
+      </c>
+      <c r="I80" s="42">
+        <v>-2.68</v>
+      </c>
+      <c r="J80" s="42">
+        <v>-2.5</v>
+      </c>
+      <c r="K80" s="42">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="L80" s="42">
+        <v>-2.39</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12">
+      <c r="B81" s="42">
+        <v>5</v>
+      </c>
+      <c r="C81" s="42">
+        <v>-2.12</v>
+      </c>
+      <c r="D81" s="42">
+        <v>-2.31</v>
+      </c>
+      <c r="E81" s="42">
+        <v>-2.52</v>
+      </c>
+      <c r="F81" s="42">
+        <v>-2.67</v>
+      </c>
+      <c r="G81" s="42">
+        <v>-2.77</v>
+      </c>
+      <c r="H81" s="42">
+        <v>-2.36</v>
+      </c>
+      <c r="I81" s="42">
+        <v>-2.4</v>
+      </c>
+      <c r="J81" s="42">
+        <v>-2.4300000000000002</v>
+      </c>
+      <c r="K81" s="42">
+        <v>-2.19</v>
+      </c>
+      <c r="L81" s="42">
+        <v>-2.33</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12">
+      <c r="B82" s="42">
+        <v>6</v>
+      </c>
+      <c r="C82" s="42">
+        <v>-2.06</v>
+      </c>
+      <c r="D82" s="42">
+        <v>-2.25</v>
+      </c>
+      <c r="E82" s="42">
+        <v>-2.31</v>
+      </c>
+      <c r="F82" s="42">
+        <v>-2.89</v>
+      </c>
+      <c r="G82" s="42">
+        <v>-3.01</v>
+      </c>
+      <c r="H82" s="42">
+        <v>-2.78</v>
+      </c>
+      <c r="I82" s="42">
+        <v>-2.67</v>
+      </c>
+      <c r="J82" s="42">
+        <v>-2.44</v>
+      </c>
+      <c r="K82" s="42">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="L82" s="42">
+        <v>-2.37</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12">
+      <c r="B83" s="42">
+        <v>7</v>
+      </c>
+      <c r="C83" s="42">
+        <v>-1.95</v>
+      </c>
+      <c r="D83" s="42">
+        <v>-2.25</v>
+      </c>
+      <c r="E83" s="42">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="F83" s="42">
+        <v>-2.63</v>
+      </c>
+      <c r="G83" s="42">
+        <v>-2.74</v>
+      </c>
+      <c r="H83" s="42">
+        <v>-2.34</v>
+      </c>
+      <c r="I83" s="42">
+        <v>-2.4</v>
+      </c>
+      <c r="J83" s="42">
+        <v>-2.42</v>
+      </c>
+      <c r="K83" s="42">
+        <v>-2.19</v>
+      </c>
+      <c r="L83" s="42">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12">
+      <c r="B84" s="42">
+        <v>8</v>
+      </c>
+      <c r="C84" s="42">
+        <v>-2.02</v>
+      </c>
+      <c r="D84" s="42">
+        <v>-2.27</v>
+      </c>
+      <c r="E84" s="42">
+        <v>-2.3199999999999998</v>
+      </c>
+      <c r="F84" s="42">
+        <v>-2.9</v>
+      </c>
+      <c r="G84" s="42">
+        <v>-3.05</v>
+      </c>
+      <c r="H84" s="42">
+        <v>-2.8</v>
+      </c>
+      <c r="I84" s="42">
+        <v>-2.71</v>
+      </c>
+      <c r="J84" s="42">
+        <v>-2.54</v>
+      </c>
+      <c r="K84" s="42">
+        <v>-2.5</v>
+      </c>
+      <c r="L84" s="42">
+        <v>-2.42</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12">
+      <c r="B85" s="42">
+        <v>9</v>
+      </c>
+      <c r="C85" s="42">
+        <v>-2.19</v>
+      </c>
+      <c r="D85" s="42">
+        <v>-2.36</v>
+      </c>
+      <c r="E85" s="42">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="F85" s="42">
+        <v>-2.62</v>
+      </c>
+      <c r="G85" s="42">
+        <v>-2.72</v>
+      </c>
+      <c r="H85" s="42">
+        <v>-2.31</v>
+      </c>
+      <c r="I85" s="42">
+        <v>-2.38</v>
+      </c>
+      <c r="J85" s="42">
+        <v>-2.39</v>
+      </c>
+      <c r="K85" s="42">
+        <v>-2.34</v>
+      </c>
+      <c r="L85" s="42">
+        <v>-2.27</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12">
+      <c r="B86" s="42">
+        <v>10</v>
+      </c>
+      <c r="C86" s="42">
+        <v>-2.08</v>
+      </c>
+      <c r="D86" s="42">
+        <v>-2.31</v>
+      </c>
+      <c r="E86" s="42">
+        <v>-2.39</v>
+      </c>
+      <c r="F86" s="42">
+        <v>-2.9</v>
+      </c>
+      <c r="G86" s="42">
+        <v>-3.04</v>
+      </c>
+      <c r="H86" s="42">
+        <v>-2.76</v>
+      </c>
+      <c r="I86" s="42">
+        <v>-2.73</v>
+      </c>
+      <c r="J86" s="42">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="K86" s="42">
+        <v>-2.48</v>
+      </c>
+      <c r="L86" s="42">
+        <v>-2.39</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12">
+      <c r="B87" s="42">
+        <v>11</v>
+      </c>
+      <c r="C87" s="42">
+        <v>-1.97</v>
+      </c>
+      <c r="D87" s="42">
+        <v>-2.31</v>
+      </c>
+      <c r="E87" s="42">
+        <v>-2.54</v>
+      </c>
+      <c r="F87" s="42">
+        <v>-2.69</v>
+      </c>
+      <c r="G87" s="42">
+        <v>-2.75</v>
+      </c>
+      <c r="H87" s="42">
+        <v>-2.31</v>
+      </c>
+      <c r="I87" s="42">
+        <v>-2.42</v>
+      </c>
+      <c r="J87" s="42">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="K87" s="42">
+        <v>-2.19</v>
+      </c>
+      <c r="L87" s="42">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12">
+      <c r="B88" s="42">
+        <v>12</v>
+      </c>
+      <c r="C88" s="42">
+        <v>-2.04</v>
+      </c>
+      <c r="D88" s="42">
+        <v>-2.2799999999999998</v>
+      </c>
+      <c r="E88" s="42">
+        <v>-2.33</v>
+      </c>
+      <c r="F88" s="42">
+        <v>-2.87</v>
+      </c>
+      <c r="G88" s="42">
+        <v>-3</v>
+      </c>
+      <c r="H88" s="42">
+        <v>-2.71</v>
+      </c>
+      <c r="I88" s="42">
+        <v>-2.69</v>
+      </c>
+      <c r="J88" s="42">
+        <v>-2.4</v>
+      </c>
+      <c r="K88" s="42">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="L88" s="42">
+        <v>-2.33</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12">
+      <c r="B89" s="42">
+        <v>13</v>
+      </c>
+      <c r="C89" s="42">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="D89" s="42">
+        <v>-2.27</v>
+      </c>
+      <c r="E89" s="42">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="F89" s="42">
+        <v>-2.65</v>
+      </c>
+      <c r="G89" s="42">
+        <v>-2.71</v>
+      </c>
+      <c r="H89" s="42">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="I89" s="42">
+        <v>-2.37</v>
+      </c>
+      <c r="J89" s="42">
+        <v>-2.42</v>
+      </c>
+      <c r="K89" s="42">
+        <v>-2.23</v>
+      </c>
+      <c r="L89" s="42">
+        <v>-2.46</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12">
+      <c r="B90" s="42">
+        <v>14</v>
+      </c>
+      <c r="C90" s="42">
+        <v>-1.99</v>
+      </c>
+      <c r="D90" s="42">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="E90" s="42">
+        <v>-2.36</v>
+      </c>
+      <c r="F90" s="42">
+        <v>-2.87</v>
+      </c>
+      <c r="G90" s="42">
+        <v>-3.04</v>
+      </c>
+      <c r="H90" s="42">
+        <v>-2.78</v>
+      </c>
+      <c r="I90" s="42">
+        <v>-2.8</v>
+      </c>
+      <c r="J90" s="42">
+        <v>-2.52</v>
+      </c>
+      <c r="K90" s="42">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="L90" s="42">
+        <v>-2.41</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12">
+      <c r="B91" s="42">
+        <v>15</v>
+      </c>
+      <c r="C91" s="42">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="D91" s="42">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="E91" s="42">
+        <v>-2.56</v>
+      </c>
+      <c r="F91" s="42">
+        <v>-2.68</v>
+      </c>
+      <c r="G91" s="42">
+        <v>-2.76</v>
+      </c>
+      <c r="H91" s="42">
+        <v>-2.39</v>
+      </c>
+      <c r="I91" s="42">
+        <v>-2.39</v>
+      </c>
+      <c r="J91" s="42">
+        <v>-2.4</v>
+      </c>
+      <c r="K91" s="42">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="L91" s="42">
+        <v>-2.25</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12">
+      <c r="B92" s="42">
+        <v>16</v>
+      </c>
+      <c r="C92" s="42">
+        <v>-2.02</v>
+      </c>
+      <c r="D92" s="42">
+        <v>-2.29</v>
+      </c>
+      <c r="E92" s="42">
+        <v>-2.37</v>
+      </c>
+      <c r="F92" s="42">
+        <v>-2.9</v>
+      </c>
+      <c r="G92" s="42">
+        <v>-3.03</v>
+      </c>
+      <c r="H92" s="42">
+        <v>-2.75</v>
+      </c>
+      <c r="I92" s="42">
+        <v>-2.67</v>
+      </c>
+      <c r="J92" s="42">
+        <v>-2.46</v>
+      </c>
+      <c r="K92" s="42">
+        <v>-2.48</v>
+      </c>
+      <c r="L92" s="42">
+        <v>-2.38</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12">
+      <c r="B93" s="42">
+        <v>17</v>
+      </c>
+      <c r="C93" s="42">
+        <v>-2.09</v>
+      </c>
+      <c r="D93" s="42">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="E93" s="42">
+        <v>-2.56</v>
+      </c>
+      <c r="F93" s="42">
+        <v>-2.65</v>
+      </c>
+      <c r="G93" s="42">
+        <v>-2.73</v>
+      </c>
+      <c r="H93" s="42">
+        <v>-2.33</v>
+      </c>
+      <c r="I93" s="42">
+        <v>-2.39</v>
+      </c>
+      <c r="J93" s="42">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="K93" s="42">
+        <v>-2.21</v>
+      </c>
+      <c r="L93" s="42">
+        <v>-2.29</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12">
+      <c r="B94" s="42">
+        <v>18</v>
+      </c>
+      <c r="C94" s="42">
+        <v>-2.04</v>
+      </c>
+      <c r="D94" s="42">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="E94" s="42">
+        <v>-2.35</v>
+      </c>
+      <c r="F94" s="42">
+        <v>-2.89</v>
+      </c>
+      <c r="G94" s="42">
+        <v>-3.03</v>
+      </c>
+      <c r="H94" s="42">
+        <v>-2.78</v>
+      </c>
+      <c r="I94" s="42">
+        <v>-2.76</v>
+      </c>
+      <c r="J94" s="42">
+        <v>-2.44</v>
+      </c>
+      <c r="K94" s="42">
+        <v>-2.5</v>
+      </c>
+      <c r="L94" s="42">
+        <v>-2.37</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12">
+      <c r="B95" s="42">
+        <v>19</v>
+      </c>
+      <c r="C95" s="42">
+        <v>-2</v>
+      </c>
+      <c r="D95" s="42">
+        <v>-2.31</v>
+      </c>
+      <c r="E95" s="42">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="F95" s="42">
+        <v>-2.73</v>
+      </c>
+      <c r="G95" s="42">
+        <v>-2.77</v>
+      </c>
+      <c r="H95" s="42">
+        <v>-2.36</v>
+      </c>
+      <c r="I95" s="42">
+        <v>-2.42</v>
+      </c>
+      <c r="J95" s="42">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="K95" s="42">
+        <v>-2.19</v>
+      </c>
+      <c r="L95" s="42">
+        <v>-2.29</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12">
+      <c r="B96" s="42">
+        <v>20</v>
+      </c>
+      <c r="C96" s="42">
+        <v>-1.95</v>
+      </c>
+      <c r="D96" s="42">
+        <v>-2.2599999999999998</v>
+      </c>
+      <c r="E96" s="42">
+        <v>-2.36</v>
+      </c>
+      <c r="F96" s="42">
+        <v>-2.9</v>
+      </c>
+      <c r="G96" s="42">
+        <v>-3.09</v>
+      </c>
+      <c r="H96" s="42">
+        <v>-2.8</v>
+      </c>
+      <c r="I96" s="42">
+        <v>-2.83</v>
+      </c>
+      <c r="J96" s="42">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="K96" s="42">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="L96" s="42">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12">
+      <c r="B97" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" s="27">
+        <f>SUBTOTAL(101,C77:C96)</f>
+        <v>-2.0324999999999998</v>
+      </c>
+      <c r="D97" s="27">
+        <f t="shared" ref="D97:L97" si="0">SUBTOTAL(101,D77:D96)</f>
+        <v>-2.2794999999999996</v>
+      </c>
+      <c r="E97" s="27">
+        <f t="shared" si="0"/>
+        <v>-2.4394999999999998</v>
+      </c>
+      <c r="F97" s="27">
+        <f t="shared" si="0"/>
+        <v>-2.7894999999999994</v>
+      </c>
+      <c r="G97" s="27">
+        <f t="shared" si="0"/>
+        <v>-2.8920000000000003</v>
+      </c>
+      <c r="H97" s="27">
+        <f t="shared" si="0"/>
+        <v>-2.5609999999999995</v>
+      </c>
+      <c r="I97" s="27">
+        <f t="shared" si="0"/>
+        <v>-2.5659999999999998</v>
+      </c>
+      <c r="J97" s="27">
+        <f t="shared" si="0"/>
+        <v>-2.452</v>
+      </c>
+      <c r="K97" s="27">
+        <f t="shared" si="0"/>
+        <v>-2.35</v>
+      </c>
+      <c r="L97" s="27">
+        <f t="shared" si="0"/>
+        <v>-2.3449999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12">
+      <c r="B98" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="27">
+        <f>STDEV(C77:C96)</f>
+        <v>6.0946482131539387E-2</v>
+      </c>
+      <c r="D98" s="27">
+        <f t="shared" ref="D98:L98" si="1">STDEV(D77:D96)</f>
+        <v>3.1030545223087909E-2</v>
+      </c>
+      <c r="E98" s="27">
+        <f t="shared" si="1"/>
+        <v>0.10328677502341665</v>
+      </c>
+      <c r="F98" s="27">
+        <f t="shared" si="1"/>
+        <v>0.11459195342378087</v>
+      </c>
+      <c r="G98" s="27">
+        <f t="shared" si="1"/>
+        <v>0.15129615433244911</v>
+      </c>
+      <c r="H98" s="27">
+        <f t="shared" si="1"/>
+        <v>0.22393373079881165</v>
+      </c>
+      <c r="I98" s="27">
+        <f t="shared" si="1"/>
+        <v>0.16655645478809758</v>
+      </c>
+      <c r="J98" s="27">
+        <f t="shared" si="1"/>
+        <v>5.0638034384395278E-2</v>
+      </c>
+      <c r="K98" s="27">
+        <f t="shared" si="1"/>
+        <v>0.14245959722709395</v>
+      </c>
+      <c r="L98" s="27">
+        <f t="shared" si="1"/>
+        <v>6.3287148441812893E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:M68"/>
+  <dimension ref="C2:M106"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="S66" sqref="S66"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6662,7 +7568,7 @@
         <v>9.8381641419631981E-3</v>
       </c>
     </row>
-    <row r="65" spans="3:11" ht="15.75">
+    <row r="65" spans="3:12" ht="15.75">
       <c r="C65" s="24" t="s">
         <v>16</v>
       </c>
@@ -6691,7 +7597,7 @@
         <v>2.0561763056703083E-2</v>
       </c>
     </row>
-    <row r="66" spans="3:11" ht="15.75">
+    <row r="66" spans="3:12" ht="15.75">
       <c r="C66" s="24" t="s">
         <v>17</v>
       </c>
@@ -6720,7 +7626,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="3:11" ht="15.75">
+    <row r="67" spans="3:12" ht="15.75">
       <c r="C67" s="24" t="s">
         <v>37</v>
       </c>
@@ -6749,13 +7655,933 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="68" spans="3:11">
+    <row r="68" spans="3:12">
       <c r="C68" s="25" t="s">
         <v>38</v>
       </c>
       <c r="D68" s="18">
         <v>2.8499999999999996</v>
       </c>
+    </row>
+    <row r="78" spans="3:12" ht="18.75">
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" s="44"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+    </row>
+    <row r="79" spans="3:12">
+      <c r="C79" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="G79" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H79" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I79" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="J79" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="K79" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="L79" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12">
+      <c r="C80" s="42">
+        <v>1</v>
+      </c>
+      <c r="D80" s="42">
+        <v>-2.58</v>
+      </c>
+      <c r="E80" s="42">
+        <v>-2.54</v>
+      </c>
+      <c r="F80" s="42">
+        <v>-3.01</v>
+      </c>
+      <c r="G80" s="42">
+        <v>-3.06</v>
+      </c>
+      <c r="H80" s="42">
+        <v>-2.75</v>
+      </c>
+      <c r="I80" s="42">
+        <v>-2.76</v>
+      </c>
+      <c r="J80" s="42">
+        <v>-2.52</v>
+      </c>
+      <c r="K80" s="42">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="L80" s="42">
+        <v>-2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12">
+      <c r="C81" s="42">
+        <v>2</v>
+      </c>
+      <c r="D81" s="42">
+        <v>-2.6</v>
+      </c>
+      <c r="E81" s="42">
+        <v>-2.63</v>
+      </c>
+      <c r="F81" s="42">
+        <v>-2.84</v>
+      </c>
+      <c r="G81" s="42">
+        <v>-2.84</v>
+      </c>
+      <c r="H81" s="42">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="I81" s="42">
+        <v>-2.75</v>
+      </c>
+      <c r="J81" s="42">
+        <v>-2.83</v>
+      </c>
+      <c r="K81" s="42">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="L81" s="42">
+        <v>-2.63</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12">
+      <c r="C82" s="42">
+        <v>3</v>
+      </c>
+      <c r="D82" s="42">
+        <v>-2.5</v>
+      </c>
+      <c r="E82" s="42">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="F82" s="42">
+        <v>-3.04</v>
+      </c>
+      <c r="G82" s="42">
+        <v>-3.08</v>
+      </c>
+      <c r="H82" s="42">
+        <v>-2.78</v>
+      </c>
+      <c r="I82" s="42">
+        <v>-2.78</v>
+      </c>
+      <c r="J82" s="42">
+        <v>-2.57</v>
+      </c>
+      <c r="K82" s="42">
+        <v>-2.44</v>
+      </c>
+      <c r="L82" s="42">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12">
+      <c r="C83" s="42">
+        <v>4</v>
+      </c>
+      <c r="D83" s="42">
+        <v>-2.48</v>
+      </c>
+      <c r="E83" s="42">
+        <v>-2.64</v>
+      </c>
+      <c r="F83" s="42">
+        <v>-2.93</v>
+      </c>
+      <c r="G83" s="42">
+        <v>-2.87</v>
+      </c>
+      <c r="H83" s="42">
+        <v>-2.57</v>
+      </c>
+      <c r="I83" s="42">
+        <v>-2.65</v>
+      </c>
+      <c r="J83" s="42">
+        <v>-2.83</v>
+      </c>
+      <c r="K83" s="42">
+        <v>-2.48</v>
+      </c>
+      <c r="L83" s="42">
+        <v>-2.56</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12">
+      <c r="C84" s="42">
+        <v>5</v>
+      </c>
+      <c r="D84" s="42">
+        <v>-2.6</v>
+      </c>
+      <c r="E84" s="42">
+        <v>-2.54</v>
+      </c>
+      <c r="F84" s="42">
+        <v>-3.02</v>
+      </c>
+      <c r="G84" s="42">
+        <v>-3.08</v>
+      </c>
+      <c r="H84" s="42">
+        <v>-2.81</v>
+      </c>
+      <c r="I84" s="42">
+        <v>-2.82</v>
+      </c>
+      <c r="J84" s="42">
+        <v>-2.61</v>
+      </c>
+      <c r="K84" s="42">
+        <v>-2.46</v>
+      </c>
+      <c r="L84" s="42">
+        <v>-2.64</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12">
+      <c r="C85" s="42">
+        <v>6</v>
+      </c>
+      <c r="D85" s="42">
+        <v>-2.41</v>
+      </c>
+      <c r="E85" s="42">
+        <v>-2.48</v>
+      </c>
+      <c r="F85" s="42">
+        <v>-3.06</v>
+      </c>
+      <c r="G85" s="42">
+        <v>-3.11</v>
+      </c>
+      <c r="H85" s="42">
+        <v>-2.79</v>
+      </c>
+      <c r="I85" s="42">
+        <v>-2.75</v>
+      </c>
+      <c r="J85" s="42">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="K85" s="42">
+        <v>-2.4300000000000002</v>
+      </c>
+      <c r="L85" s="42">
+        <v>-2.57</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12">
+      <c r="C86" s="42">
+        <v>7</v>
+      </c>
+      <c r="D86" s="42">
+        <v>-2.33</v>
+      </c>
+      <c r="E86" s="42">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="F86" s="42">
+        <v>-2.86</v>
+      </c>
+      <c r="G86" s="42">
+        <v>-2.64</v>
+      </c>
+      <c r="H86" s="42">
+        <v>-2.3199999999999998</v>
+      </c>
+      <c r="I86" s="42">
+        <v>-2.42</v>
+      </c>
+      <c r="J86" s="42">
+        <v>-2.42</v>
+      </c>
+      <c r="K86" s="42">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="L86" s="42">
+        <v>-2.41</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12">
+      <c r="C87" s="42">
+        <v>8</v>
+      </c>
+      <c r="D87" s="42">
+        <v>-2.37</v>
+      </c>
+      <c r="E87" s="42">
+        <v>-2.61</v>
+      </c>
+      <c r="F87" s="42">
+        <v>-2.92</v>
+      </c>
+      <c r="G87" s="42">
+        <v>-2.86</v>
+      </c>
+      <c r="H87" s="42">
+        <v>-2.52</v>
+      </c>
+      <c r="I87" s="42">
+        <v>-2.58</v>
+      </c>
+      <c r="J87" s="42">
+        <v>-2.61</v>
+      </c>
+      <c r="K87" s="42">
+        <v>-2.42</v>
+      </c>
+      <c r="L87" s="42">
+        <v>-2.61</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12">
+      <c r="C88" s="42">
+        <v>9</v>
+      </c>
+      <c r="D88" s="42">
+        <v>-2.52</v>
+      </c>
+      <c r="E88" s="42">
+        <v>-2.48</v>
+      </c>
+      <c r="F88" s="42">
+        <v>-3.02</v>
+      </c>
+      <c r="G88" s="42">
+        <v>-3.07</v>
+      </c>
+      <c r="H88" s="42">
+        <v>-2.78</v>
+      </c>
+      <c r="I88" s="42">
+        <v>-2.79</v>
+      </c>
+      <c r="J88" s="42">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="K88" s="42">
+        <v>-2.44</v>
+      </c>
+      <c r="L88" s="42">
+        <v>-2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12">
+      <c r="C89" s="42">
+        <v>10</v>
+      </c>
+      <c r="D89" s="42">
+        <v>-2.41</v>
+      </c>
+      <c r="E89" s="42">
+        <v>-2.63</v>
+      </c>
+      <c r="F89" s="42">
+        <v>-2.89</v>
+      </c>
+      <c r="G89" s="42">
+        <v>-2.87</v>
+      </c>
+      <c r="H89" s="42">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="I89" s="42">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="J89" s="42">
+        <v>-2.63</v>
+      </c>
+      <c r="K89" s="42">
+        <v>-2.4</v>
+      </c>
+      <c r="L89" s="42">
+        <v>-2.69</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12">
+      <c r="C90" s="42">
+        <v>11</v>
+      </c>
+      <c r="D90" s="42">
+        <v>-2.4300000000000002</v>
+      </c>
+      <c r="E90" s="42">
+        <v>-2.48</v>
+      </c>
+      <c r="F90" s="42">
+        <v>-3.08</v>
+      </c>
+      <c r="G90" s="42">
+        <v>-3.11</v>
+      </c>
+      <c r="H90" s="42">
+        <v>-2.78</v>
+      </c>
+      <c r="I90" s="42">
+        <v>-2.78</v>
+      </c>
+      <c r="J90" s="42">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="K90" s="42">
+        <v>-2.4300000000000002</v>
+      </c>
+      <c r="L90" s="42">
+        <v>-2.57</v>
+      </c>
+    </row>
+    <row r="91" spans="3:12">
+      <c r="C91" s="42">
+        <v>12</v>
+      </c>
+      <c r="D91" s="42">
+        <v>-2.42</v>
+      </c>
+      <c r="E91" s="42">
+        <v>-2.65</v>
+      </c>
+      <c r="F91" s="42">
+        <v>-2.95</v>
+      </c>
+      <c r="G91" s="42">
+        <v>-2.88</v>
+      </c>
+      <c r="H91" s="42">
+        <v>-2.52</v>
+      </c>
+      <c r="I91" s="42">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="J91" s="42">
+        <v>-2.6</v>
+      </c>
+      <c r="K91" s="42">
+        <v>-2.35</v>
+      </c>
+      <c r="L91" s="42">
+        <v>-2.54</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12">
+      <c r="C92" s="42">
+        <v>13</v>
+      </c>
+      <c r="D92" s="42">
+        <v>-2.48</v>
+      </c>
+      <c r="E92" s="42">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="F92" s="42">
+        <v>-3.04</v>
+      </c>
+      <c r="G92" s="42">
+        <v>-3.11</v>
+      </c>
+      <c r="H92" s="42">
+        <v>-2.77</v>
+      </c>
+      <c r="I92" s="42">
+        <v>-2.77</v>
+      </c>
+      <c r="J92" s="42">
+        <v>-2.52</v>
+      </c>
+      <c r="K92" s="42">
+        <v>-2.4300000000000002</v>
+      </c>
+      <c r="L92" s="42">
+        <v>-2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12">
+      <c r="C93" s="42">
+        <v>14</v>
+      </c>
+      <c r="D93" s="42">
+        <v>-2.42</v>
+      </c>
+      <c r="E93" s="42">
+        <v>-2.68</v>
+      </c>
+      <c r="F93" s="42">
+        <v>-2.99</v>
+      </c>
+      <c r="G93" s="42">
+        <v>-2.85</v>
+      </c>
+      <c r="H93" s="42">
+        <v>-2.5</v>
+      </c>
+      <c r="I93" s="42">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="J93" s="42">
+        <v>-2.59</v>
+      </c>
+      <c r="K93" s="42">
+        <v>-2.36</v>
+      </c>
+      <c r="L93" s="42">
+        <v>-2.54</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12">
+      <c r="C94" s="42">
+        <v>15</v>
+      </c>
+      <c r="D94" s="42">
+        <v>-2.46</v>
+      </c>
+      <c r="E94" s="42">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="F94" s="42">
+        <v>-3.04</v>
+      </c>
+      <c r="G94" s="42">
+        <v>-3.1</v>
+      </c>
+      <c r="H94" s="42">
+        <v>-2.74</v>
+      </c>
+      <c r="I94" s="42">
+        <v>-2.75</v>
+      </c>
+      <c r="J94" s="42">
+        <v>-2.5</v>
+      </c>
+      <c r="K94" s="42">
+        <v>-2.41</v>
+      </c>
+      <c r="L94" s="42">
+        <v>-2.58</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12">
+      <c r="C95" s="42">
+        <v>16</v>
+      </c>
+      <c r="D95" s="42">
+        <v>-2.44</v>
+      </c>
+      <c r="E95" s="42">
+        <v>-2.64</v>
+      </c>
+      <c r="F95" s="42">
+        <v>-2.94</v>
+      </c>
+      <c r="G95" s="42">
+        <v>-2.84</v>
+      </c>
+      <c r="H95" s="42">
+        <v>-2.5</v>
+      </c>
+      <c r="I95" s="42">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="J95" s="42">
+        <v>-2.62</v>
+      </c>
+      <c r="K95" s="42">
+        <v>-2.4</v>
+      </c>
+      <c r="L95" s="42">
+        <v>-2.57</v>
+      </c>
+    </row>
+    <row r="96" spans="3:12">
+      <c r="C96" s="42">
+        <v>17</v>
+      </c>
+      <c r="D96" s="42">
+        <v>-2.5</v>
+      </c>
+      <c r="E96" s="42">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="F96" s="42">
+        <v>-3.11</v>
+      </c>
+      <c r="G96" s="42">
+        <v>-3.18</v>
+      </c>
+      <c r="H96" s="42">
+        <v>-2.83</v>
+      </c>
+      <c r="I96" s="42">
+        <v>-2.82</v>
+      </c>
+      <c r="J96" s="42">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="K96" s="42">
+        <v>-2.4300000000000002</v>
+      </c>
+      <c r="L96" s="42">
+        <v>-2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12">
+      <c r="C97" s="42">
+        <v>18</v>
+      </c>
+      <c r="D97" s="42">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="E97" s="42">
+        <v>-2.68</v>
+      </c>
+      <c r="F97" s="42">
+        <v>-2.99</v>
+      </c>
+      <c r="G97" s="42">
+        <v>-2.9</v>
+      </c>
+      <c r="H97" s="42">
+        <v>-2.58</v>
+      </c>
+      <c r="I97" s="42">
+        <v>-2.58</v>
+      </c>
+      <c r="J97" s="42">
+        <v>-2.64</v>
+      </c>
+      <c r="K97" s="42">
+        <v>-2.37</v>
+      </c>
+      <c r="L97" s="42">
+        <v>-2.94</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12">
+      <c r="C98" s="42">
+        <v>19</v>
+      </c>
+      <c r="D98" s="42">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="E98" s="42">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="F98" s="42">
+        <v>-3.07</v>
+      </c>
+      <c r="G98" s="42">
+        <v>-3.11</v>
+      </c>
+      <c r="H98" s="42">
+        <v>-2.75</v>
+      </c>
+      <c r="I98" s="42">
+        <v>-2.76</v>
+      </c>
+      <c r="J98" s="42">
+        <v>-2.52</v>
+      </c>
+      <c r="K98" s="42">
+        <v>-2.41</v>
+      </c>
+      <c r="L98" s="42">
+        <v>-2.66</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12">
+      <c r="C99" s="42">
+        <v>20</v>
+      </c>
+      <c r="D99" s="42">
+        <v>-2.4300000000000002</v>
+      </c>
+      <c r="E99" s="42">
+        <v>-2.66</v>
+      </c>
+      <c r="F99" s="42">
+        <v>-2.97</v>
+      </c>
+      <c r="G99" s="42">
+        <v>-2.93</v>
+      </c>
+      <c r="H99" s="42">
+        <v>-2.59</v>
+      </c>
+      <c r="I99" s="42">
+        <v>-2.64</v>
+      </c>
+      <c r="J99" s="42">
+        <v>-2.65</v>
+      </c>
+      <c r="K99" s="42">
+        <v>-2.4300000000000002</v>
+      </c>
+      <c r="L99" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12">
+      <c r="C100" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="42">
+        <f t="shared" ref="D100:K100" si="0">AVERAGE(D80:D99)</f>
+        <v>-2.4660000000000002</v>
+      </c>
+      <c r="E100" s="42">
+        <f t="shared" si="0"/>
+        <v>-2.5729999999999995</v>
+      </c>
+      <c r="F100" s="42">
+        <f t="shared" si="0"/>
+        <v>-2.9885000000000002</v>
+      </c>
+      <c r="G100" s="42">
+        <f t="shared" si="0"/>
+        <v>-2.9744999999999999</v>
+      </c>
+      <c r="H100" s="42">
+        <f t="shared" si="0"/>
+        <v>-2.6459999999999999</v>
+      </c>
+      <c r="I100" s="42">
+        <f t="shared" si="0"/>
+        <v>-2.6799999999999997</v>
+      </c>
+      <c r="J100" s="42">
+        <f t="shared" si="0"/>
+        <v>-2.5860000000000003</v>
+      </c>
+      <c r="K100" s="42">
+        <f t="shared" si="0"/>
+        <v>-2.4175</v>
+      </c>
+      <c r="L100" s="42"/>
+    </row>
+    <row r="101" spans="3:12">
+      <c r="C101" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" s="42">
+        <f t="shared" ref="D101:K101" si="1">STDEV(D80:D99)</f>
+        <v>7.1406914009926145E-2</v>
+      </c>
+      <c r="E101" s="42">
+        <f t="shared" si="1"/>
+        <v>7.2699815391068706E-2</v>
+      </c>
+      <c r="F101" s="42">
+        <f t="shared" si="1"/>
+        <v>7.4641247239533845E-2</v>
+      </c>
+      <c r="G101" s="42">
+        <f t="shared" si="1"/>
+        <v>0.14236628075051938</v>
+      </c>
+      <c r="H101" s="42">
+        <f t="shared" si="1"/>
+        <v>0.14666108442327411</v>
+      </c>
+      <c r="I101" s="42">
+        <f t="shared" si="1"/>
+        <v>0.11800981225930011</v>
+      </c>
+      <c r="J101" s="42">
+        <f t="shared" si="1"/>
+        <v>0.102618352724007</v>
+      </c>
+      <c r="K101" s="42">
+        <f t="shared" si="1"/>
+        <v>5.9725248121345345E-2</v>
+      </c>
+      <c r="L101" s="42"/>
+    </row>
+    <row r="102" spans="3:12" ht="15.75">
+      <c r="C102" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="42">
+        <f>D101/SQRT(20)</f>
+        <v>1.5967071378967693E-2</v>
+      </c>
+      <c r="E102" s="42">
+        <f t="shared" ref="E102:K102" si="2">E101/SQRT(20)</f>
+        <v>1.6256172916611508E-2</v>
+      </c>
+      <c r="F102" s="42">
+        <f t="shared" si="2"/>
+        <v>1.6690290275296619E-2</v>
+      </c>
+      <c r="G102" s="42">
+        <f t="shared" si="2"/>
+        <v>3.1834068146198109E-2</v>
+      </c>
+      <c r="H102" s="42">
+        <f t="shared" si="2"/>
+        <v>3.2794415442427644E-2</v>
+      </c>
+      <c r="I102" s="42">
+        <f t="shared" si="2"/>
+        <v>2.6387796222378308E-2</v>
+      </c>
+      <c r="J102" s="42">
+        <f t="shared" si="2"/>
+        <v>2.2946161242993035E-2</v>
+      </c>
+      <c r="K102" s="42">
+        <f t="shared" si="2"/>
+        <v>1.3354971477236979E-2</v>
+      </c>
+      <c r="L102" s="42"/>
+    </row>
+    <row r="103" spans="3:12" ht="15.75">
+      <c r="C103" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="42">
+        <f>D101*$A$1</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="42">
+        <f t="shared" ref="E103:K103" si="3">E101*$A$1</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I103" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K103" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L103" s="42"/>
+    </row>
+    <row r="104" spans="3:12" ht="15.75">
+      <c r="C104" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="E104" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="F104" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="G104" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H104" s="42">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I104" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="J104" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="K104" s="42">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L104" s="42"/>
+    </row>
+    <row r="105" spans="3:12" ht="15.75">
+      <c r="C105" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105" s="42">
+        <f>ABS(ABS(MIN(D80:D99)-ABS(MAX(D80:D99))))</f>
+        <v>4.93</v>
+      </c>
+      <c r="E105" s="42">
+        <f t="shared" ref="E105:K105" si="4">ABS(ABS(MIN(E80:E99)-ABS(MAX(E80:E99))))</f>
+        <v>5.16</v>
+      </c>
+      <c r="F105" s="42">
+        <f t="shared" si="4"/>
+        <v>5.9499999999999993</v>
+      </c>
+      <c r="G105" s="42">
+        <f t="shared" si="4"/>
+        <v>5.82</v>
+      </c>
+      <c r="H105" s="42">
+        <f t="shared" si="4"/>
+        <v>5.15</v>
+      </c>
+      <c r="I105" s="42">
+        <f t="shared" si="4"/>
+        <v>5.24</v>
+      </c>
+      <c r="J105" s="42">
+        <f t="shared" si="4"/>
+        <v>5.25</v>
+      </c>
+      <c r="K105" s="42">
+        <f t="shared" si="4"/>
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="L105" s="42"/>
+    </row>
+    <row r="106" spans="3:12">
+      <c r="C106" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="42"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6765,10 +8591,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:J77"/>
+  <dimension ref="B2:K115"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L116" sqref="L116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8366,6 +10192,874 @@
       <c r="I77" s="34"/>
       <c r="J77" s="34"/>
     </row>
+    <row r="89" spans="2:11" ht="18.75">
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F89" s="44"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="42"/>
+    </row>
+    <row r="90" spans="2:11">
+      <c r="B90" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D90" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F90" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G90" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H90" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="I90" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="J90" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="K90" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11">
+      <c r="B91" s="42">
+        <v>1</v>
+      </c>
+      <c r="C91" s="42">
+        <v>-2.73</v>
+      </c>
+      <c r="D91" s="42">
+        <v>-2.77</v>
+      </c>
+      <c r="E91" s="42">
+        <v>-2.99</v>
+      </c>
+      <c r="F91" s="42">
+        <v>-3.09</v>
+      </c>
+      <c r="G91" s="42">
+        <v>-2.7</v>
+      </c>
+      <c r="H91" s="42">
+        <v>-2.81</v>
+      </c>
+      <c r="I91" s="42">
+        <v>-2.75</v>
+      </c>
+      <c r="J91" s="42">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="K91" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11">
+      <c r="B92" s="42">
+        <v>2</v>
+      </c>
+      <c r="C92" s="42">
+        <v>-2.65</v>
+      </c>
+      <c r="D92" s="42">
+        <v>-2.72</v>
+      </c>
+      <c r="E92" s="42">
+        <v>-3.06</v>
+      </c>
+      <c r="F92" s="42">
+        <v>-3.19</v>
+      </c>
+      <c r="G92" s="42">
+        <v>-2.85</v>
+      </c>
+      <c r="H92" s="42">
+        <v>-2.94</v>
+      </c>
+      <c r="I92" s="42">
+        <v>-2.56</v>
+      </c>
+      <c r="J92" s="42">
+        <v>-2.54</v>
+      </c>
+      <c r="K92" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11">
+      <c r="B93" s="42">
+        <v>3</v>
+      </c>
+      <c r="C93" s="42">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="D93" s="42">
+        <v>-2.82</v>
+      </c>
+      <c r="E93" s="42">
+        <v>-3.15</v>
+      </c>
+      <c r="F93" s="42">
+        <v>-3.07</v>
+      </c>
+      <c r="G93" s="42">
+        <v>-2.73</v>
+      </c>
+      <c r="H93" s="42">
+        <v>-2.78</v>
+      </c>
+      <c r="I93" s="42">
+        <v>-2.73</v>
+      </c>
+      <c r="J93" s="42">
+        <v>-2.48</v>
+      </c>
+      <c r="K93" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11">
+      <c r="B94" s="42">
+        <v>4</v>
+      </c>
+      <c r="C94" s="42">
+        <v>-2.66</v>
+      </c>
+      <c r="D94" s="42">
+        <v>-2.72</v>
+      </c>
+      <c r="E94" s="42">
+        <v>-3.15</v>
+      </c>
+      <c r="F94" s="42">
+        <v>-3.22</v>
+      </c>
+      <c r="G94" s="42">
+        <v>-2.83</v>
+      </c>
+      <c r="H94" s="42">
+        <v>-2.9</v>
+      </c>
+      <c r="I94" s="42">
+        <v>-2.66</v>
+      </c>
+      <c r="J94" s="42">
+        <v>-2.67</v>
+      </c>
+      <c r="K94" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11">
+      <c r="B95" s="42">
+        <v>5</v>
+      </c>
+      <c r="C95" s="42">
+        <v>-2.67</v>
+      </c>
+      <c r="D95" s="42">
+        <v>-2.78</v>
+      </c>
+      <c r="E95" s="42">
+        <v>-3.01</v>
+      </c>
+      <c r="F95" s="42">
+        <v>-3.08</v>
+      </c>
+      <c r="G95" s="42">
+        <v>-2.74</v>
+      </c>
+      <c r="H95" s="42">
+        <v>-2.78</v>
+      </c>
+      <c r="I95" s="42">
+        <v>-2.73</v>
+      </c>
+      <c r="J95" s="42">
+        <v>-2.4</v>
+      </c>
+      <c r="K95" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11">
+      <c r="B96" s="42">
+        <v>6</v>
+      </c>
+      <c r="C96" s="42">
+        <v>-2.62</v>
+      </c>
+      <c r="D96" s="42">
+        <v>-2.71</v>
+      </c>
+      <c r="E96" s="42">
+        <v>-3.15</v>
+      </c>
+      <c r="F96" s="42">
+        <v>-3.25</v>
+      </c>
+      <c r="G96" s="42">
+        <v>-2.89</v>
+      </c>
+      <c r="H96" s="42">
+        <v>-2.95</v>
+      </c>
+      <c r="I96" s="42">
+        <v>-2.58</v>
+      </c>
+      <c r="J96" s="42">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="K96" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="42">
+        <v>7</v>
+      </c>
+      <c r="C97" s="42">
+        <v>-2.63</v>
+      </c>
+      <c r="D97" s="42">
+        <v>-2.79</v>
+      </c>
+      <c r="E97" s="42">
+        <v>-2.96</v>
+      </c>
+      <c r="F97" s="42">
+        <v>-2.99</v>
+      </c>
+      <c r="G97" s="42">
+        <v>-2.68</v>
+      </c>
+      <c r="H97" s="42">
+        <v>-2.76</v>
+      </c>
+      <c r="I97" s="42">
+        <v>-2.72</v>
+      </c>
+      <c r="J97" s="42">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="K97" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11">
+      <c r="B98" s="42">
+        <v>8</v>
+      </c>
+      <c r="C98" s="42">
+        <v>-2.74</v>
+      </c>
+      <c r="D98" s="42">
+        <v>-2.81</v>
+      </c>
+      <c r="E98" s="42">
+        <v>-3.05</v>
+      </c>
+      <c r="F98" s="42">
+        <v>-3.1</v>
+      </c>
+      <c r="G98" s="42">
+        <v>-2.76</v>
+      </c>
+      <c r="H98" s="42">
+        <v>-2.79</v>
+      </c>
+      <c r="I98" s="42">
+        <v>-2.72</v>
+      </c>
+      <c r="J98" s="42">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="K98" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11">
+      <c r="B99" s="42">
+        <v>9</v>
+      </c>
+      <c r="C99" s="42">
+        <v>-2.65</v>
+      </c>
+      <c r="D99" s="42">
+        <v>-2.68</v>
+      </c>
+      <c r="E99" s="42">
+        <v>-3.11</v>
+      </c>
+      <c r="F99" s="42">
+        <v>-3.22</v>
+      </c>
+      <c r="G99" s="42">
+        <v>-2.86</v>
+      </c>
+      <c r="H99" s="42">
+        <v>-2.93</v>
+      </c>
+      <c r="I99" s="42">
+        <v>-2.56</v>
+      </c>
+      <c r="J99" s="42">
+        <v>-2.59</v>
+      </c>
+      <c r="K99" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11">
+      <c r="B100" s="42">
+        <v>10</v>
+      </c>
+      <c r="C100" s="42">
+        <v>-2.62</v>
+      </c>
+      <c r="D100" s="42">
+        <v>-2.81</v>
+      </c>
+      <c r="E100" s="42">
+        <v>-2.98</v>
+      </c>
+      <c r="F100" s="42">
+        <v>-3.08</v>
+      </c>
+      <c r="G100" s="42">
+        <v>-2.75</v>
+      </c>
+      <c r="H100" s="42">
+        <v>-2.79</v>
+      </c>
+      <c r="I100" s="42">
+        <v>-2.73</v>
+      </c>
+      <c r="J100" s="42">
+        <v>-2.48</v>
+      </c>
+      <c r="K100" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11">
+      <c r="B101" s="42">
+        <v>11</v>
+      </c>
+      <c r="C101" s="42">
+        <v>-2.71</v>
+      </c>
+      <c r="D101" s="42">
+        <v>-2.65</v>
+      </c>
+      <c r="E101" s="42">
+        <v>-3.09</v>
+      </c>
+      <c r="F101" s="42">
+        <v>-3.21</v>
+      </c>
+      <c r="G101" s="42">
+        <v>-2.87</v>
+      </c>
+      <c r="H101" s="42">
+        <v>-2.93</v>
+      </c>
+      <c r="I101" s="42">
+        <v>-2.6</v>
+      </c>
+      <c r="J101" s="42">
+        <v>-2.56</v>
+      </c>
+      <c r="K101" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11">
+      <c r="B102" s="42">
+        <v>12</v>
+      </c>
+      <c r="C102" s="42">
+        <v>-2.59</v>
+      </c>
+      <c r="D102" s="42">
+        <v>-2.79</v>
+      </c>
+      <c r="E102" s="42">
+        <v>-3.14</v>
+      </c>
+      <c r="F102" s="42">
+        <v>-3.09</v>
+      </c>
+      <c r="G102" s="42">
+        <v>-2.73</v>
+      </c>
+      <c r="H102" s="42">
+        <v>-2.75</v>
+      </c>
+      <c r="I102" s="42">
+        <v>-2.71</v>
+      </c>
+      <c r="J102" s="42">
+        <v>-2.46</v>
+      </c>
+      <c r="K102" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11">
+      <c r="B103" s="42">
+        <v>13</v>
+      </c>
+      <c r="C103" s="42">
+        <v>-2.62</v>
+      </c>
+      <c r="D103" s="42">
+        <v>-2.64</v>
+      </c>
+      <c r="E103" s="42">
+        <v>-3.09</v>
+      </c>
+      <c r="F103" s="42">
+        <v>-3.21</v>
+      </c>
+      <c r="G103" s="42">
+        <v>-2.9</v>
+      </c>
+      <c r="H103" s="42">
+        <v>-2.94</v>
+      </c>
+      <c r="I103" s="42">
+        <v>-2.61</v>
+      </c>
+      <c r="J103" s="42">
+        <v>-2.62</v>
+      </c>
+      <c r="K103" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104" s="42">
+        <v>14</v>
+      </c>
+      <c r="C104" s="42">
+        <v>-2.62</v>
+      </c>
+      <c r="D104" s="42">
+        <v>-2.78</v>
+      </c>
+      <c r="E104" s="42">
+        <v>-3.05</v>
+      </c>
+      <c r="F104" s="42">
+        <v>-3.05</v>
+      </c>
+      <c r="G104" s="42">
+        <v>-2.73</v>
+      </c>
+      <c r="H104" s="42">
+        <v>-2.85</v>
+      </c>
+      <c r="I104" s="42">
+        <v>-2.76</v>
+      </c>
+      <c r="J104" s="42">
+        <v>-2.5</v>
+      </c>
+      <c r="K104" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11">
+      <c r="B105" s="42">
+        <v>15</v>
+      </c>
+      <c r="C105" s="42">
+        <v>-2.62</v>
+      </c>
+      <c r="D105" s="42">
+        <v>-2.66</v>
+      </c>
+      <c r="E105" s="42">
+        <v>-3.09</v>
+      </c>
+      <c r="F105" s="42">
+        <v>-3.2</v>
+      </c>
+      <c r="G105" s="42">
+        <v>-2.9</v>
+      </c>
+      <c r="H105" s="42">
+        <v>-2.96</v>
+      </c>
+      <c r="I105" s="42">
+        <v>-2.54</v>
+      </c>
+      <c r="J105" s="42">
+        <v>-2.54</v>
+      </c>
+      <c r="K105" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" s="42">
+        <v>16</v>
+      </c>
+      <c r="C106" s="42">
+        <v>-2.62</v>
+      </c>
+      <c r="D106" s="42">
+        <v>-2.74</v>
+      </c>
+      <c r="E106" s="42">
+        <v>-3.03</v>
+      </c>
+      <c r="F106" s="42">
+        <v>-3.05</v>
+      </c>
+      <c r="G106" s="42">
+        <v>-2.27</v>
+      </c>
+      <c r="H106" s="42">
+        <v>-2.78</v>
+      </c>
+      <c r="I106" s="42">
+        <v>-2.73</v>
+      </c>
+      <c r="J106" s="42">
+        <v>-2.52</v>
+      </c>
+      <c r="K106" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" s="42">
+        <v>17</v>
+      </c>
+      <c r="C107" s="42">
+        <v>-2.61</v>
+      </c>
+      <c r="D107" s="42">
+        <v>-2.64</v>
+      </c>
+      <c r="E107" s="42">
+        <v>-3.18</v>
+      </c>
+      <c r="F107" s="42">
+        <v>-3.23</v>
+      </c>
+      <c r="G107" s="42">
+        <v>-2.84</v>
+      </c>
+      <c r="H107" s="42">
+        <v>-2.94</v>
+      </c>
+      <c r="I107" s="42">
+        <v>-2.59</v>
+      </c>
+      <c r="J107" s="42">
+        <v>-2.6</v>
+      </c>
+      <c r="K107" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11">
+      <c r="B108" s="42">
+        <v>18</v>
+      </c>
+      <c r="C108" s="42">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="D108" s="42">
+        <v>-2.77</v>
+      </c>
+      <c r="E108" s="42">
+        <v>-3.14</v>
+      </c>
+      <c r="F108" s="42">
+        <v>-3.15</v>
+      </c>
+      <c r="G108" s="42">
+        <v>-2.98</v>
+      </c>
+      <c r="H108" s="42">
+        <v>-2.99</v>
+      </c>
+      <c r="I108" s="42">
+        <v>-2.76</v>
+      </c>
+      <c r="J108" s="42">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="K108" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="42">
+        <v>19</v>
+      </c>
+      <c r="C109" s="42">
+        <v>-2.57</v>
+      </c>
+      <c r="D109" s="42">
+        <v>-2.63</v>
+      </c>
+      <c r="E109" s="42">
+        <v>-3.13</v>
+      </c>
+      <c r="F109" s="42">
+        <v>-3.25</v>
+      </c>
+      <c r="G109" s="42">
+        <v>-2.93</v>
+      </c>
+      <c r="H109" s="42">
+        <v>-2.95</v>
+      </c>
+      <c r="I109" s="42">
+        <v>-2.64</v>
+      </c>
+      <c r="J109" s="42">
+        <v>-2.63</v>
+      </c>
+      <c r="K109" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="42">
+        <v>20</v>
+      </c>
+      <c r="C110" s="42">
+        <v>-2.62</v>
+      </c>
+      <c r="D110" s="42">
+        <v>-2.67</v>
+      </c>
+      <c r="E110" s="42">
+        <v>-3.17</v>
+      </c>
+      <c r="F110" s="42">
+        <v>-3.25</v>
+      </c>
+      <c r="G110" s="42">
+        <v>-2.9</v>
+      </c>
+      <c r="H110" s="42">
+        <v>-2.96</v>
+      </c>
+      <c r="I110" s="42">
+        <v>-2.59</v>
+      </c>
+      <c r="J110" s="42">
+        <v>-2.5499999999999998</v>
+      </c>
+      <c r="K110" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111" s="42">
+        <f t="shared" ref="C111:J111" si="0">AVERAGE(C91:C110)</f>
+        <v>-2.6324999999999994</v>
+      </c>
+      <c r="D111" s="42">
+        <f t="shared" si="0"/>
+        <v>-2.7290000000000001</v>
+      </c>
+      <c r="E111" s="42">
+        <f t="shared" si="0"/>
+        <v>-3.0860000000000007</v>
+      </c>
+      <c r="F111" s="42">
+        <f t="shared" si="0"/>
+        <v>-3.149</v>
+      </c>
+      <c r="G111" s="42">
+        <f t="shared" si="0"/>
+        <v>-2.7919999999999998</v>
+      </c>
+      <c r="H111" s="42">
+        <f t="shared" si="0"/>
+        <v>-2.8740000000000001</v>
+      </c>
+      <c r="I111" s="42">
+        <f t="shared" si="0"/>
+        <v>-2.6634999999999991</v>
+      </c>
+      <c r="J111" s="42">
+        <f t="shared" si="0"/>
+        <v>-2.5274999999999999</v>
+      </c>
+      <c r="K111" s="42"/>
+    </row>
+    <row r="112" spans="2:11">
+      <c r="B112" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" s="42">
+        <f t="shared" ref="C112:J112" si="1">STDEV(C91:C110)</f>
+        <v>5.1694955470122518E-2</v>
+      </c>
+      <c r="D112" s="42">
+        <f t="shared" si="1"/>
+        <v>6.5123364713268059E-2</v>
+      </c>
+      <c r="E112" s="42">
+        <f t="shared" si="1"/>
+        <v>6.691707358245258E-2</v>
+      </c>
+      <c r="F112" s="42">
+        <f t="shared" si="1"/>
+        <v>8.2391874918800345E-2</v>
+      </c>
+      <c r="G112" s="42">
+        <f t="shared" si="1"/>
+        <v>0.14996841772783839</v>
+      </c>
+      <c r="H112" s="42">
+        <f t="shared" si="1"/>
+        <v>8.3816842924881715E-2</v>
+      </c>
+      <c r="I112" s="42">
+        <f t="shared" si="1"/>
+        <v>7.7546251054688736E-2</v>
+      </c>
+      <c r="J112" s="42">
+        <f t="shared" si="1"/>
+        <v>6.9651387563160222E-2</v>
+      </c>
+      <c r="K112" s="42"/>
+    </row>
+    <row r="113" spans="2:11" ht="15.75">
+      <c r="B113" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113" s="42">
+        <f>C112/SQRT(20)</f>
+        <v>1.1559343452501855E-2</v>
+      </c>
+      <c r="D113" s="42">
+        <f t="shared" ref="D113:J113" si="2">D112/SQRT(20)</f>
+        <v>1.4562027042237847E-2</v>
+      </c>
+      <c r="E113" s="42">
+        <f t="shared" si="2"/>
+        <v>1.4963112538571934E-2</v>
+      </c>
+      <c r="F113" s="42">
+        <f t="shared" si="2"/>
+        <v>1.8423383311209754E-2</v>
+      </c>
+      <c r="G113" s="42">
+        <f t="shared" si="2"/>
+        <v>3.353395765175312E-2</v>
+      </c>
+      <c r="H113" s="42">
+        <f t="shared" si="2"/>
+        <v>1.8742015843945782E-2</v>
+      </c>
+      <c r="I113" s="42">
+        <f t="shared" si="2"/>
+        <v>1.7339868875854876E-2</v>
+      </c>
+      <c r="J113" s="42">
+        <f t="shared" si="2"/>
+        <v>1.5574523731840968E-2</v>
+      </c>
+      <c r="K113" s="42"/>
+    </row>
+    <row r="114" spans="2:11" ht="15.75">
+      <c r="B114" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" s="42">
+        <f>C112*$A$1</f>
+        <v>0</v>
+      </c>
+      <c r="D114" s="42">
+        <f t="shared" ref="D114:J114" si="3">D112*$A$1</f>
+        <v>0</v>
+      </c>
+      <c r="E114" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K114" s="42"/>
+    </row>
+    <row r="115" spans="2:11" ht="15.75">
+      <c r="B115" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" s="42">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D115" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="E115" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="F115" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="G115" s="42">
+        <v>0.08</v>
+      </c>
+      <c r="H115" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="I115" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="J115" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="K115" s="42"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8374,10 +11068,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D3:L31"/>
+  <dimension ref="C3:L87"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9193,6 +11887,844 @@
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
     </row>
+    <row r="61" spans="3:12" ht="18.75">
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="44"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+    </row>
+    <row r="62" spans="3:12">
+      <c r="C62" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="G62" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H62" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="I62" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="J62" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="K62" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="L62" s="51" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12">
+      <c r="C63" s="42">
+        <v>1</v>
+      </c>
+      <c r="D63" s="42">
+        <v>-2.57</v>
+      </c>
+      <c r="E63" s="42">
+        <v>-2.81</v>
+      </c>
+      <c r="F63" s="42">
+        <v>-2.99</v>
+      </c>
+      <c r="G63" s="42">
+        <v>-3.04</v>
+      </c>
+      <c r="H63" s="42">
+        <v>-2.78</v>
+      </c>
+      <c r="I63" s="42">
+        <v>-3.05</v>
+      </c>
+      <c r="J63" s="42">
+        <v>-2.4900000000000002</v>
+      </c>
+      <c r="K63" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L63" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12">
+      <c r="C64" s="42">
+        <v>2</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="42">
+        <v>-2.95</v>
+      </c>
+      <c r="F64" s="42">
+        <v>-3.12</v>
+      </c>
+      <c r="G64" s="42">
+        <v>-3.27</v>
+      </c>
+      <c r="H64" s="42">
+        <v>-3.01</v>
+      </c>
+      <c r="I64" s="42">
+        <v>-3.1</v>
+      </c>
+      <c r="J64" s="42">
+        <v>-2.69</v>
+      </c>
+      <c r="K64" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L64" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12">
+      <c r="C65" s="42">
+        <v>3</v>
+      </c>
+      <c r="D65" s="42">
+        <v>-2.71</v>
+      </c>
+      <c r="E65" s="42">
+        <v>-2.75</v>
+      </c>
+      <c r="F65" s="42">
+        <v>-3.24</v>
+      </c>
+      <c r="G65" s="42">
+        <v>-3.36</v>
+      </c>
+      <c r="H65" s="42">
+        <v>-3.12</v>
+      </c>
+      <c r="I65" s="42">
+        <v>-3.25</v>
+      </c>
+      <c r="J65" s="42">
+        <v>-2.5</v>
+      </c>
+      <c r="K65" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L65" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12">
+      <c r="C66" s="42">
+        <v>4</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="42">
+        <v>-2.96</v>
+      </c>
+      <c r="F66" s="42">
+        <v>-3.13</v>
+      </c>
+      <c r="G66" s="42">
+        <v>-3.26</v>
+      </c>
+      <c r="H66" s="42">
+        <v>-3</v>
+      </c>
+      <c r="I66" s="42">
+        <v>-3.06</v>
+      </c>
+      <c r="J66" s="42">
+        <v>-2.7</v>
+      </c>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12">
+      <c r="C67" s="42">
+        <v>5</v>
+      </c>
+      <c r="D67" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="42">
+        <v>-2.88</v>
+      </c>
+      <c r="F67" s="42">
+        <v>-3.19</v>
+      </c>
+      <c r="G67" s="42">
+        <v>-3.24</v>
+      </c>
+      <c r="H67" s="42">
+        <v>-2.95</v>
+      </c>
+      <c r="I67" s="42">
+        <v>-3.03</v>
+      </c>
+      <c r="J67" s="42">
+        <v>-2.6</v>
+      </c>
+      <c r="K67" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L67" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12">
+      <c r="C68" s="42">
+        <v>6</v>
+      </c>
+      <c r="D68" s="42">
+        <v>-2.72</v>
+      </c>
+      <c r="E68" s="42">
+        <v>-2.69</v>
+      </c>
+      <c r="F68" s="42">
+        <v>-3.16</v>
+      </c>
+      <c r="G68" s="42">
+        <v>-3.36</v>
+      </c>
+      <c r="H68" s="42">
+        <v>-3.13</v>
+      </c>
+      <c r="I68" s="42">
+        <v>-3.25</v>
+      </c>
+      <c r="J68" s="42">
+        <v>-2.54</v>
+      </c>
+      <c r="K68" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L68" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12">
+      <c r="C69" s="42">
+        <v>7</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" s="42">
+        <v>-2.85</v>
+      </c>
+      <c r="F69" s="42">
+        <v>-3.16</v>
+      </c>
+      <c r="G69" s="42">
+        <v>-3.27</v>
+      </c>
+      <c r="H69" s="42">
+        <v>-2.97</v>
+      </c>
+      <c r="I69" s="42">
+        <v>-3.07</v>
+      </c>
+      <c r="J69" s="42">
+        <v>-2.65</v>
+      </c>
+      <c r="K69" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L69" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12">
+      <c r="C70" s="42">
+        <v>8</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" s="42">
+        <v>-2.72</v>
+      </c>
+      <c r="F70" s="42">
+        <v>-3.26</v>
+      </c>
+      <c r="G70" s="42">
+        <v>-3.44</v>
+      </c>
+      <c r="H70" s="42">
+        <v>-3.17</v>
+      </c>
+      <c r="I70" s="42">
+        <v>-3.24</v>
+      </c>
+      <c r="J70" s="42">
+        <v>-2.85</v>
+      </c>
+      <c r="K70" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L70" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12">
+      <c r="C71" s="42">
+        <v>9</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="42">
+        <v>-2.86</v>
+      </c>
+      <c r="F71" s="42">
+        <v>-3.16</v>
+      </c>
+      <c r="G71" s="42">
+        <v>-3.31</v>
+      </c>
+      <c r="H71" s="42">
+        <v>-3.01</v>
+      </c>
+      <c r="I71" s="42">
+        <v>-3.09</v>
+      </c>
+      <c r="J71" s="42">
+        <v>-2.72</v>
+      </c>
+      <c r="K71" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L71" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12">
+      <c r="C72" s="42">
+        <v>10</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" s="42">
+        <v>-2.7</v>
+      </c>
+      <c r="F72" s="42">
+        <v>-3.29</v>
+      </c>
+      <c r="G72" s="42">
+        <v>-3.44</v>
+      </c>
+      <c r="H72" s="42">
+        <v>-3.17</v>
+      </c>
+      <c r="I72" s="42">
+        <v>-3.2</v>
+      </c>
+      <c r="J72" s="42">
+        <v>-2.4700000000000002</v>
+      </c>
+      <c r="K72" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L72" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12">
+      <c r="C73" s="42">
+        <v>11</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" s="42">
+        <v>-2.71</v>
+      </c>
+      <c r="F73" s="42">
+        <v>-3.31</v>
+      </c>
+      <c r="G73" s="42">
+        <v>-3.48</v>
+      </c>
+      <c r="H73" s="42">
+        <v>-3.19</v>
+      </c>
+      <c r="I73" s="42">
+        <v>-3.26</v>
+      </c>
+      <c r="J73" s="42">
+        <v>-2.58</v>
+      </c>
+      <c r="K73" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L73" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12">
+      <c r="C74" s="42">
+        <v>12</v>
+      </c>
+      <c r="D74" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E74" s="42">
+        <v>-2.87</v>
+      </c>
+      <c r="F74" s="42">
+        <v>-3.16</v>
+      </c>
+      <c r="G74" s="42">
+        <v>-3.22</v>
+      </c>
+      <c r="H74" s="42">
+        <v>-2.92</v>
+      </c>
+      <c r="I74" s="42">
+        <v>-3.09</v>
+      </c>
+      <c r="J74" s="42">
+        <v>-2.68</v>
+      </c>
+      <c r="K74" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L74" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12">
+      <c r="C75" s="42">
+        <v>13</v>
+      </c>
+      <c r="D75" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" s="42">
+        <v>-2.68</v>
+      </c>
+      <c r="F75" s="42">
+        <v>-3.2</v>
+      </c>
+      <c r="G75" s="42">
+        <v>-3.28</v>
+      </c>
+      <c r="H75" s="42">
+        <v>-2.96</v>
+      </c>
+      <c r="I75" s="42">
+        <v>-3.07</v>
+      </c>
+      <c r="J75" s="42">
+        <v>-2.48</v>
+      </c>
+      <c r="K75" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L75" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12">
+      <c r="C76" s="42">
+        <v>14</v>
+      </c>
+      <c r="D76" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E76" s="42">
+        <v>-2.9</v>
+      </c>
+      <c r="F76" s="42">
+        <v>-3.62</v>
+      </c>
+      <c r="G76" s="42">
+        <v>-3.28</v>
+      </c>
+      <c r="H76" s="42">
+        <v>-2.92</v>
+      </c>
+      <c r="I76" s="42">
+        <v>-3.01</v>
+      </c>
+      <c r="J76" s="42">
+        <v>-2.62</v>
+      </c>
+      <c r="K76" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L76" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12">
+      <c r="C77" s="42">
+        <v>15</v>
+      </c>
+      <c r="D77" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E77" s="42">
+        <v>-3.03</v>
+      </c>
+      <c r="F77" s="42">
+        <v>-3.88</v>
+      </c>
+      <c r="G77" s="42">
+        <v>-3.29</v>
+      </c>
+      <c r="H77" s="42">
+        <v>-2.91</v>
+      </c>
+      <c r="I77" s="42">
+        <v>-3.07</v>
+      </c>
+      <c r="J77" s="42">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="K77" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L77" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12">
+      <c r="C78" s="42">
+        <v>16</v>
+      </c>
+      <c r="D78" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E78" s="42">
+        <v>-2.75</v>
+      </c>
+      <c r="F78" s="42">
+        <v>-3.27</v>
+      </c>
+      <c r="G78" s="42">
+        <v>-3.41</v>
+      </c>
+      <c r="H78" s="42">
+        <v>-3.12</v>
+      </c>
+      <c r="I78" s="42">
+        <v>-3.17</v>
+      </c>
+      <c r="J78" s="42">
+        <v>-2.54</v>
+      </c>
+      <c r="K78" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L78" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12">
+      <c r="C79" s="42">
+        <v>17</v>
+      </c>
+      <c r="D79" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E79" s="42">
+        <v>-2.86</v>
+      </c>
+      <c r="F79" s="42">
+        <v>-3.37</v>
+      </c>
+      <c r="G79" s="42">
+        <v>-3.24</v>
+      </c>
+      <c r="H79" s="42">
+        <v>-2.93</v>
+      </c>
+      <c r="I79" s="42">
+        <v>-2.94</v>
+      </c>
+      <c r="J79" s="42">
+        <v>-2.61</v>
+      </c>
+      <c r="K79" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L79" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12">
+      <c r="C80" s="42">
+        <v>18</v>
+      </c>
+      <c r="D80" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" s="42">
+        <v>-2.68</v>
+      </c>
+      <c r="F80" s="42">
+        <v>-3.18</v>
+      </c>
+      <c r="G80" s="42">
+        <v>-3.3</v>
+      </c>
+      <c r="H80" s="42">
+        <v>-3.02</v>
+      </c>
+      <c r="I80" s="42">
+        <v>-3.18</v>
+      </c>
+      <c r="J80" s="42">
+        <v>-2.6</v>
+      </c>
+      <c r="K80" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L80" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12">
+      <c r="C81" s="42">
+        <v>19</v>
+      </c>
+      <c r="D81" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81" s="42">
+        <v>-3.06</v>
+      </c>
+      <c r="F81" s="42">
+        <v>-3.07</v>
+      </c>
+      <c r="G81" s="42">
+        <v>-3.27</v>
+      </c>
+      <c r="H81" s="42">
+        <v>-2.9</v>
+      </c>
+      <c r="I81" s="42">
+        <v>-3.04</v>
+      </c>
+      <c r="J81" s="42">
+        <v>-2.59</v>
+      </c>
+      <c r="K81" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L81" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12">
+      <c r="C82" s="42">
+        <v>20</v>
+      </c>
+      <c r="D82" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" s="42">
+        <v>-2.73</v>
+      </c>
+      <c r="F82" s="42">
+        <v>-3.26</v>
+      </c>
+      <c r="G82" s="42">
+        <v>-2.42</v>
+      </c>
+      <c r="H82" s="42">
+        <v>-3.14</v>
+      </c>
+      <c r="I82" s="42">
+        <v>-3.25</v>
+      </c>
+      <c r="J82" s="42">
+        <v>-2.6</v>
+      </c>
+      <c r="K82" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="L82" s="42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="3:12">
+      <c r="C83" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42">
+        <f t="shared" ref="E83:J83" si="0">AVERAGE(E63:E82)</f>
+        <v>-2.8220000000000001</v>
+      </c>
+      <c r="F83" s="42">
+        <f t="shared" si="0"/>
+        <v>-3.2510000000000003</v>
+      </c>
+      <c r="G83" s="42">
+        <f t="shared" si="0"/>
+        <v>-3.2590000000000003</v>
+      </c>
+      <c r="H83" s="42">
+        <f t="shared" si="0"/>
+        <v>-3.0159999999999996</v>
+      </c>
+      <c r="I83" s="42">
+        <f t="shared" si="0"/>
+        <v>-3.1209999999999996</v>
+      </c>
+      <c r="J83" s="42">
+        <f t="shared" si="0"/>
+        <v>-2.6019999999999999</v>
+      </c>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+    </row>
+    <row r="84" spans="3:12">
+      <c r="C84" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42">
+        <f t="shared" ref="E84:J84" si="1">STDEV(E63:E82)</f>
+        <v>0.11817026075250883</v>
+      </c>
+      <c r="F84" s="42">
+        <f t="shared" si="1"/>
+        <v>0.19584902885963382</v>
+      </c>
+      <c r="G84" s="42">
+        <f t="shared" si="1"/>
+        <v>0.21983007791904546</v>
+      </c>
+      <c r="H84" s="42">
+        <f t="shared" si="1"/>
+        <v>0.11329514320431033</v>
+      </c>
+      <c r="I84" s="42">
+        <f t="shared" si="1"/>
+        <v>9.5801329515021919E-2</v>
+      </c>
+      <c r="J84" s="42">
+        <f t="shared" si="1"/>
+        <v>9.4679514818761024E-2</v>
+      </c>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+    </row>
+    <row r="85" spans="3:12" ht="15.75">
+      <c r="C85" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42">
+        <f>E84/SQRT(20)</f>
+        <v>2.6423673596148518E-2</v>
+      </c>
+      <c r="F85" s="42">
+        <f t="shared" ref="F85:J85" si="2">F84/SQRT(20)</f>
+        <v>4.379317418574593E-2</v>
+      </c>
+      <c r="G85" s="42">
+        <f t="shared" si="2"/>
+        <v>4.9155499772606116E-2</v>
+      </c>
+      <c r="H85" s="42">
+        <f t="shared" si="2"/>
+        <v>2.5333564172541123E-2</v>
+      </c>
+      <c r="I85" s="42">
+        <f t="shared" si="2"/>
+        <v>2.1421828513044597E-2</v>
+      </c>
+      <c r="J85" s="42">
+        <f t="shared" si="2"/>
+        <v>2.1170983121144831E-2</v>
+      </c>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+    </row>
+    <row r="86" spans="3:12" ht="15.75">
+      <c r="C86" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42">
+        <f>E84*$A$1</f>
+        <v>0</v>
+      </c>
+      <c r="F86" s="42">
+        <f t="shared" ref="F86:J86" si="3">F84*$A$1</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
+    </row>
+    <row r="87" spans="3:12" ht="15.75">
+      <c r="C87" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="F87" s="42">
+        <v>0.1</v>
+      </c>
+      <c r="G87" s="42">
+        <v>0.11</v>
+      </c>
+      <c r="H87" s="42">
+        <v>0.06</v>
+      </c>
+      <c r="I87" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="J87" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
